--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_11.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_11.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N158"/>
+  <dimension ref="A1:N159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06235289573669434</v>
+        <v>0.0005500316619873047</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003324985504150391</v>
+        <v>0.0004568099975585938</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002356052398681641</v>
+        <v>0.002872228622436523</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 2), (1, 3), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[2, 0], [2, 2], [1, 3], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>[(1, 1), (1, 2), (2, 1), (1, 0), (0, 1), (2, 2), (0, 2), (0, 0), (2, 0), (0, 3), (1, 3)]</t>
+          <t>[[1, 1], [1, 2], [2, 1], [1, 0], [0, 1], [2, 2], [0, 2], [0, 0], [2, 0], [0, 3], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -1551,110 +1551,120 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>16</v>
+        <v>0.9990331134467497</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>3</v>
+        <v>125</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.07819533348083496</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.01346921920776367</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr">
+      <c r="I159" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J158" t="inlineStr">
+      <c r="J159" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K158" t="inlineStr">
+      <c r="K159" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L158" t="inlineStr">
+      <c r="L159" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr">
+      <c r="M159" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N158" t="inlineStr">
+      <c r="N159" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_11.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_11.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0005500316619873047</v>
+        <v>0.0002887248992919922</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0004568099975585938</v>
+        <v>0.0001490116119384766</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002872228622436523</v>
+        <v>0.01241707801818848</v>
       </c>
     </row>
     <row r="8">
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.01346921920776367</v>
+        <v>0.02244400978088379</v>
       </c>
     </row>
     <row r="159">
